--- a/notes_file_procurement_transparency.xlsx
+++ b/notes_file_procurement_transparency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wemigliari/Documents/Pós-Doutorado &amp; Doutorado/Pós-Doc/UOC/Project/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696C74ED-F0F3-B04A-BF95-6EA2401E3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6ED1F9-76EE-9D4B-865E-6E8DE5CE7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" firstSheet="3" activeTab="9" xr2:uid="{CDF12EF4-6225-4B45-97CE-8EA870F856B1}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="414">
   <si>
     <t>Country</t>
   </si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t>* The factor containing asterisk counts 3 points. There are 20 factors in total and they are intimately linked to the principle of collaborative transparency including emergency situations. The sum of all is equal 60.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  The factor not containing asterisk counts 2,666 points. There are 15 factors and they correspond to the principle of active or passive transparency depending on the context. The sum of all is approximately 40.</t>
   </si>
   <si>
     <t>Availablity Sum</t>
@@ -1581,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1775,37 +1772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1832,7 +1798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2077,19 +2043,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2104,14 +2061,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,7 +2083,7 @@
     <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3651,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD69D7A-0C03-EC41-B183-1069610F007C}">
-  <dimension ref="A1:BC34"/>
+  <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="AB23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3757,7 +3714,7 @@
         <v>300</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>268</v>
@@ -3772,7 +3729,7 @@
         <v>302</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>270</v>
@@ -3784,7 +3741,7 @@
         <v>272</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>303</v>
@@ -3811,13 +3768,13 @@
         <v>153</v>
       </c>
       <c r="V2" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W2" s="60" t="s">
         <v>304</v>
       </c>
       <c r="X2" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y2" s="56" t="s">
         <v>281</v>
@@ -3829,7 +3786,7 @@
         <v>285</v>
       </c>
       <c r="AB2" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC2" s="55" t="s">
         <v>291</v>
@@ -8494,60 +8451,11 @@
       <c r="U32" s="86"/>
       <c r="V32" s="87"/>
     </row>
-    <row r="33" spans="2:22">
-      <c r="B33" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="87"/>
-    </row>
-    <row r="34" spans="2:22" ht="17" thickBot="1">
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="90"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="B31:V32"/>
-    <mergeCell ref="B33:V34"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="AE1:AG1"/>
@@ -8564,518 +8472,518 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA0ECC0-5C34-4D4E-8D63-9AABEEA02384}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="125" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="57" style="93" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="90" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="100" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="C1" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="D1" s="97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="C2" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="95" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="101">
+      <c r="B30" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="98">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="96" t="s">
+    <row r="31" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A31" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A33" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A34" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="D12" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A13" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>345</v>
-      </c>
-      <c r="D13" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>414</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="D15" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A20" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>352</v>
-      </c>
-      <c r="D20" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>410</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="D22" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" s="96" t="s">
-        <v>408</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A26" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>360</v>
-      </c>
-      <c r="D28" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A31" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="D31" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A32" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="D32" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A33" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>401</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="D33" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A34" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="96" t="s">
+      <c r="B35" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C35" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="D34" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A35" s="98" t="s">
+      <c r="D35" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A36" s="96" t="s">
         <v>326</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B36" s="101" t="s">
         <v>403</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C36" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A36" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="D36" s="99">
         <v>3</v>
       </c>
     </row>
@@ -9095,511 +9003,511 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="3" width="57" style="93" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="95" customWidth="1"/>
+    <col min="2" max="3" width="57" style="90" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="100" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="C1" s="100" t="s">
         <v>370</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="D1" s="97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="C2" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A4" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="93" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" s="93" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D22" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="D23" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>392</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="98">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A29" s="95" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A30" s="95" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A2" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="96" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>334</v>
-      </c>
-      <c r="D2" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="96" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="101">
+      <c r="B30" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="98">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="96" t="s">
+    <row r="31" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A31" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A32" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A33" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A34" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A35" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>339</v>
-      </c>
-      <c r="D7" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>379</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A12" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="D12" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A13" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>345</v>
-      </c>
-      <c r="D13" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B15" s="96" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="D15" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>384</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="98" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>387</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>351</v>
-      </c>
-      <c r="D19" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A20" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>352</v>
-      </c>
-      <c r="D20" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>354</v>
-      </c>
-      <c r="D22" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="96" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>355</v>
-      </c>
-      <c r="D23" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B24" s="96" t="s">
-        <v>392</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A26" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>395</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="98" t="s">
-        <v>331</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>360</v>
-      </c>
-      <c r="D28" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A29" s="98" t="s">
-        <v>330</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>397</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>361</v>
-      </c>
-      <c r="D29" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A30" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>362</v>
-      </c>
-      <c r="D30" s="101">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A31" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="96" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>363</v>
-      </c>
-      <c r="D31" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A32" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>364</v>
-      </c>
-      <c r="D32" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A33" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>401</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>365</v>
-      </c>
-      <c r="D33" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A34" s="98" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="96" t="s">
+      <c r="B35" s="93" t="s">
         <v>402</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C35" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="D34" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A35" s="98" t="s">
+      <c r="D35" s="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="91" customFormat="1" ht="20" customHeight="1">
+      <c r="A36" s="96" t="s">
         <v>326</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B36" s="101" t="s">
         <v>403</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C36" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="D35" s="101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="94" customFormat="1" ht="20" customHeight="1">
-      <c r="A36" s="99" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="D36" s="102">
+      <c r="D36" s="99">
         <v>3</v>
       </c>
     </row>
@@ -9612,18 +9520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA5F1FD-0174-4945-B34D-00DD23A6FF6E}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A33" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="93" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="114" customFormat="1">
-      <c r="A1" s="115" t="s">
-        <v>370</v>
+    <row r="1" spans="1:28" s="111" customFormat="1">
+      <c r="A1" s="112" t="s">
+        <v>369</v>
       </c>
       <c r="B1" s="72" t="s">
         <v>59</v>
@@ -9708,181 +9616,181 @@
       </c>
     </row>
     <row r="2" spans="1:28" ht="25" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="74">
+        <v>3</v>
+      </c>
+      <c r="C2" s="74">
+        <v>3</v>
+      </c>
+      <c r="D2" s="74">
+        <v>3</v>
+      </c>
+      <c r="E2" s="74">
+        <v>3</v>
+      </c>
+      <c r="F2" s="74">
+        <v>0</v>
+      </c>
+      <c r="G2" s="74">
+        <v>3</v>
+      </c>
+      <c r="H2" s="74">
+        <v>3</v>
+      </c>
+      <c r="I2" s="74">
+        <v>3</v>
+      </c>
+      <c r="J2" s="74">
+        <v>3</v>
+      </c>
+      <c r="K2" s="74">
+        <v>3</v>
+      </c>
+      <c r="L2" s="74">
+        <v>3</v>
+      </c>
+      <c r="M2" s="74">
+        <v>3</v>
+      </c>
+      <c r="N2" s="74">
+        <v>3</v>
+      </c>
+      <c r="O2" s="74">
+        <v>3</v>
+      </c>
+      <c r="P2" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="74">
+        <v>3</v>
+      </c>
+      <c r="R2" s="74">
+        <v>3</v>
+      </c>
+      <c r="S2" s="74">
+        <v>3</v>
+      </c>
+      <c r="T2" s="74">
+        <v>3</v>
+      </c>
+      <c r="U2" s="74">
+        <v>3</v>
+      </c>
+      <c r="V2" s="74">
+        <v>3</v>
+      </c>
+      <c r="W2" s="74">
+        <v>3</v>
+      </c>
+      <c r="X2" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="25" customHeight="1">
+      <c r="A3" s="105" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="74">
-        <v>3</v>
-      </c>
-      <c r="C2" s="74">
-        <v>3</v>
-      </c>
-      <c r="D2" s="74">
-        <v>3</v>
-      </c>
-      <c r="E2" s="74">
-        <v>3</v>
-      </c>
-      <c r="F2" s="74">
-        <v>0</v>
-      </c>
-      <c r="G2" s="74">
-        <v>3</v>
-      </c>
-      <c r="H2" s="74">
-        <v>3</v>
-      </c>
-      <c r="I2" s="74">
-        <v>3</v>
-      </c>
-      <c r="J2" s="74">
-        <v>3</v>
-      </c>
-      <c r="K2" s="74">
-        <v>3</v>
-      </c>
-      <c r="L2" s="74">
-        <v>3</v>
-      </c>
-      <c r="M2" s="74">
-        <v>3</v>
-      </c>
-      <c r="N2" s="74">
-        <v>3</v>
-      </c>
-      <c r="O2" s="74">
-        <v>3</v>
-      </c>
-      <c r="P2" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="74">
-        <v>3</v>
-      </c>
-      <c r="R2" s="74">
-        <v>3</v>
-      </c>
-      <c r="S2" s="74">
-        <v>3</v>
-      </c>
-      <c r="T2" s="74">
-        <v>3</v>
-      </c>
-      <c r="U2" s="74">
-        <v>3</v>
-      </c>
-      <c r="V2" s="74">
-        <v>3</v>
-      </c>
-      <c r="W2" s="74">
-        <v>3</v>
-      </c>
-      <c r="X2" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="25" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="B3" s="74">
+        <v>3</v>
+      </c>
+      <c r="C3" s="74">
+        <v>3</v>
+      </c>
+      <c r="D3" s="74">
+        <v>3</v>
+      </c>
+      <c r="E3" s="74">
+        <v>3</v>
+      </c>
+      <c r="F3" s="74">
+        <v>0</v>
+      </c>
+      <c r="G3" s="74">
+        <v>3</v>
+      </c>
+      <c r="H3" s="74">
+        <v>3</v>
+      </c>
+      <c r="I3" s="74">
+        <v>3</v>
+      </c>
+      <c r="J3" s="74">
+        <v>3</v>
+      </c>
+      <c r="K3" s="74">
+        <v>3</v>
+      </c>
+      <c r="L3" s="74">
+        <v>3</v>
+      </c>
+      <c r="M3" s="74">
+        <v>3</v>
+      </c>
+      <c r="N3" s="74">
+        <v>3</v>
+      </c>
+      <c r="O3" s="74">
+        <v>3</v>
+      </c>
+      <c r="P3" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="74">
+        <v>3</v>
+      </c>
+      <c r="R3" s="74">
+        <v>3</v>
+      </c>
+      <c r="S3" s="74">
+        <v>0</v>
+      </c>
+      <c r="T3" s="74">
+        <v>3</v>
+      </c>
+      <c r="U3" s="74">
+        <v>3</v>
+      </c>
+      <c r="V3" s="74">
+        <v>3</v>
+      </c>
+      <c r="W3" s="74">
+        <v>0</v>
+      </c>
+      <c r="X3" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="25" customHeight="1">
+      <c r="A4" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="B3" s="74">
-        <v>3</v>
-      </c>
-      <c r="C3" s="74">
-        <v>3</v>
-      </c>
-      <c r="D3" s="74">
-        <v>3</v>
-      </c>
-      <c r="E3" s="74">
-        <v>3</v>
-      </c>
-      <c r="F3" s="74">
-        <v>0</v>
-      </c>
-      <c r="G3" s="74">
-        <v>3</v>
-      </c>
-      <c r="H3" s="74">
-        <v>3</v>
-      </c>
-      <c r="I3" s="74">
-        <v>3</v>
-      </c>
-      <c r="J3" s="74">
-        <v>3</v>
-      </c>
-      <c r="K3" s="74">
-        <v>3</v>
-      </c>
-      <c r="L3" s="74">
-        <v>3</v>
-      </c>
-      <c r="M3" s="74">
-        <v>3</v>
-      </c>
-      <c r="N3" s="74">
-        <v>3</v>
-      </c>
-      <c r="O3" s="74">
-        <v>3</v>
-      </c>
-      <c r="P3" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="74">
-        <v>3</v>
-      </c>
-      <c r="R3" s="74">
-        <v>3</v>
-      </c>
-      <c r="S3" s="74">
-        <v>0</v>
-      </c>
-      <c r="T3" s="74">
-        <v>3</v>
-      </c>
-      <c r="U3" s="74">
-        <v>3</v>
-      </c>
-      <c r="V3" s="74">
-        <v>3</v>
-      </c>
-      <c r="W3" s="74">
-        <v>0</v>
-      </c>
-      <c r="X3" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="25" customHeight="1">
-      <c r="A4" s="108" t="s">
-        <v>374</v>
-      </c>
       <c r="B4" s="74">
         <v>3</v>
       </c>
@@ -9966,8 +9874,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="25" customHeight="1">
-      <c r="A5" s="108" t="s">
-        <v>414</v>
+      <c r="A5" s="105" t="s">
+        <v>413</v>
       </c>
       <c r="B5" s="74">
         <v>2.6659999999999999</v>
@@ -10052,8 +9960,8 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="25" customHeight="1">
-      <c r="A6" s="108" t="s">
-        <v>413</v>
+      <c r="A6" s="105" t="s">
+        <v>412</v>
       </c>
       <c r="B6" s="74">
         <v>0</v>
@@ -10138,8 +10046,8 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="25" customHeight="1">
-      <c r="A7" s="108" t="s">
-        <v>376</v>
+      <c r="A7" s="105" t="s">
+        <v>375</v>
       </c>
       <c r="B7" s="74">
         <v>3</v>
@@ -10224,8 +10132,8 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="25" customHeight="1">
-      <c r="A8" s="108" t="s">
-        <v>386</v>
+      <c r="A8" s="105" t="s">
+        <v>385</v>
       </c>
       <c r="B8" s="74">
         <v>3</v>
@@ -10310,8 +10218,8 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="25" customHeight="1">
-      <c r="A9" s="108" t="s">
-        <v>387</v>
+      <c r="A9" s="105" t="s">
+        <v>386</v>
       </c>
       <c r="B9" s="74">
         <v>0</v>
@@ -10396,8 +10304,8 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="25" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>412</v>
+      <c r="A10" s="105" t="s">
+        <v>411</v>
       </c>
       <c r="B10" s="74">
         <v>0</v>
@@ -10482,8 +10390,8 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="25" customHeight="1">
-      <c r="A11" s="108" t="s">
-        <v>411</v>
+      <c r="A11" s="105" t="s">
+        <v>410</v>
       </c>
       <c r="B11" s="74">
         <v>0</v>
@@ -10568,8 +10476,8 @@
       </c>
     </row>
     <row r="12" spans="1:28" ht="25" customHeight="1">
-      <c r="A12" s="108" t="s">
-        <v>410</v>
+      <c r="A12" s="105" t="s">
+        <v>409</v>
       </c>
       <c r="B12" s="74">
         <v>0</v>
@@ -10654,1986 +10562,1986 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="25" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="74">
+        <v>3</v>
+      </c>
+      <c r="C13" s="74">
+        <v>3</v>
+      </c>
+      <c r="D13" s="74">
+        <v>3</v>
+      </c>
+      <c r="E13" s="74">
+        <v>3</v>
+      </c>
+      <c r="F13" s="74">
+        <v>3</v>
+      </c>
+      <c r="G13" s="74">
+        <v>3</v>
+      </c>
+      <c r="H13" s="74">
+        <v>3</v>
+      </c>
+      <c r="I13" s="74">
+        <v>3</v>
+      </c>
+      <c r="J13" s="74">
+        <v>3</v>
+      </c>
+      <c r="K13" s="74">
+        <v>3</v>
+      </c>
+      <c r="L13" s="74">
+        <v>3</v>
+      </c>
+      <c r="M13" s="74">
+        <v>3</v>
+      </c>
+      <c r="N13" s="74">
+        <v>3</v>
+      </c>
+      <c r="O13" s="74">
+        <v>3</v>
+      </c>
+      <c r="P13" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="74">
+        <v>3</v>
+      </c>
+      <c r="R13" s="74">
+        <v>3</v>
+      </c>
+      <c r="S13" s="74">
+        <v>3</v>
+      </c>
+      <c r="T13" s="74">
+        <v>3</v>
+      </c>
+      <c r="U13" s="74">
+        <v>3</v>
+      </c>
+      <c r="V13" s="74">
+        <v>3</v>
+      </c>
+      <c r="W13" s="74">
+        <v>3</v>
+      </c>
+      <c r="X13" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="25" customHeight="1">
+      <c r="A14" s="105" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="74">
+        <v>0</v>
+      </c>
+      <c r="C14" s="74">
+        <v>0</v>
+      </c>
+      <c r="D14" s="74">
+        <v>0</v>
+      </c>
+      <c r="E14" s="74">
+        <v>3</v>
+      </c>
+      <c r="F14" s="74">
+        <v>3</v>
+      </c>
+      <c r="G14" s="74">
+        <v>3</v>
+      </c>
+      <c r="H14" s="74">
+        <v>3</v>
+      </c>
+      <c r="I14" s="74">
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
+        <v>3</v>
+      </c>
+      <c r="K14" s="74">
+        <v>0</v>
+      </c>
+      <c r="L14" s="74">
+        <v>3</v>
+      </c>
+      <c r="M14" s="74">
+        <v>0</v>
+      </c>
+      <c r="N14" s="74">
+        <v>0</v>
+      </c>
+      <c r="O14" s="74">
+        <v>0</v>
+      </c>
+      <c r="P14" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="74">
+        <v>3</v>
+      </c>
+      <c r="R14" s="74">
+        <v>3</v>
+      </c>
+      <c r="S14" s="74">
+        <v>0</v>
+      </c>
+      <c r="T14" s="74">
+        <v>0</v>
+      </c>
+      <c r="U14" s="74">
+        <v>3</v>
+      </c>
+      <c r="V14" s="74">
+        <v>3</v>
+      </c>
+      <c r="W14" s="74">
+        <v>0</v>
+      </c>
+      <c r="X14" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="25" customHeight="1">
+      <c r="A15" s="105" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="74">
+        <v>0</v>
+      </c>
+      <c r="C15" s="74">
+        <v>0</v>
+      </c>
+      <c r="D15" s="74">
+        <v>0</v>
+      </c>
+      <c r="E15" s="74">
+        <v>0</v>
+      </c>
+      <c r="F15" s="74">
+        <v>0</v>
+      </c>
+      <c r="G15" s="74">
+        <v>0</v>
+      </c>
+      <c r="H15" s="74">
+        <v>0</v>
+      </c>
+      <c r="I15" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J15" s="74">
+        <v>0</v>
+      </c>
+      <c r="K15" s="74">
+        <v>0</v>
+      </c>
+      <c r="L15" s="74">
+        <v>0</v>
+      </c>
+      <c r="M15" s="74">
+        <v>0</v>
+      </c>
+      <c r="N15" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O15" s="74">
+        <v>0</v>
+      </c>
+      <c r="P15" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74">
+        <v>0</v>
+      </c>
+      <c r="R15" s="74">
+        <v>0</v>
+      </c>
+      <c r="S15" s="74">
+        <v>0</v>
+      </c>
+      <c r="T15" s="74">
+        <v>0</v>
+      </c>
+      <c r="U15" s="74">
+        <v>0</v>
+      </c>
+      <c r="V15" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W15" s="74">
+        <v>0</v>
+      </c>
+      <c r="X15" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z15" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="25" customHeight="1">
+      <c r="A16" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="74">
+        <v>0</v>
+      </c>
+      <c r="C16" s="74">
+        <v>0</v>
+      </c>
+      <c r="D16" s="74">
+        <v>0</v>
+      </c>
+      <c r="E16" s="74">
+        <v>0</v>
+      </c>
+      <c r="F16" s="74">
+        <v>0</v>
+      </c>
+      <c r="G16" s="74">
+        <v>0</v>
+      </c>
+      <c r="H16" s="74">
+        <v>0</v>
+      </c>
+      <c r="I16" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J16" s="74">
+        <v>0</v>
+      </c>
+      <c r="K16" s="74">
+        <v>0</v>
+      </c>
+      <c r="L16" s="74">
+        <v>0</v>
+      </c>
+      <c r="M16" s="74">
+        <v>0</v>
+      </c>
+      <c r="N16" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O16" s="74">
+        <v>0</v>
+      </c>
+      <c r="P16" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74">
+        <v>0</v>
+      </c>
+      <c r="R16" s="74">
+        <v>0</v>
+      </c>
+      <c r="S16" s="74">
+        <v>0</v>
+      </c>
+      <c r="T16" s="74">
+        <v>0</v>
+      </c>
+      <c r="U16" s="74">
+        <v>0</v>
+      </c>
+      <c r="V16" s="74">
+        <v>0</v>
+      </c>
+      <c r="W16" s="74">
+        <v>0</v>
+      </c>
+      <c r="X16" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="25" customHeight="1">
+      <c r="A17" s="105" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="74">
+        <v>0</v>
+      </c>
+      <c r="C17" s="74">
+        <v>0</v>
+      </c>
+      <c r="D17" s="74">
+        <v>0</v>
+      </c>
+      <c r="E17" s="74">
+        <v>0</v>
+      </c>
+      <c r="F17" s="74">
+        <v>0</v>
+      </c>
+      <c r="G17" s="74">
+        <v>0</v>
+      </c>
+      <c r="H17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I17" s="74">
+        <v>0</v>
+      </c>
+      <c r="J17" s="74">
+        <v>0</v>
+      </c>
+      <c r="K17" s="74">
+        <v>0</v>
+      </c>
+      <c r="L17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="M17" s="74">
+        <v>0</v>
+      </c>
+      <c r="N17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O17" s="74">
+        <v>0</v>
+      </c>
+      <c r="P17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q17" s="74">
+        <v>0</v>
+      </c>
+      <c r="R17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S17" s="74">
+        <v>0</v>
+      </c>
+      <c r="T17" s="74">
+        <v>0</v>
+      </c>
+      <c r="U17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="V17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W17" s="74">
+        <v>0</v>
+      </c>
+      <c r="X17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Y17" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z17" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="25" customHeight="1">
+      <c r="A18" s="105" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="74">
+        <v>0</v>
+      </c>
+      <c r="C18" s="74">
+        <v>0</v>
+      </c>
+      <c r="D18" s="74">
+        <v>0</v>
+      </c>
+      <c r="E18" s="74">
+        <v>0</v>
+      </c>
+      <c r="F18" s="74">
+        <v>0</v>
+      </c>
+      <c r="G18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="H18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I18" s="74">
+        <v>0</v>
+      </c>
+      <c r="J18" s="74">
+        <v>0</v>
+      </c>
+      <c r="K18" s="74">
+        <v>0</v>
+      </c>
+      <c r="L18" s="74">
+        <v>0</v>
+      </c>
+      <c r="M18" s="74">
+        <v>0</v>
+      </c>
+      <c r="N18" s="74">
+        <v>0</v>
+      </c>
+      <c r="O18" s="74">
+        <v>0</v>
+      </c>
+      <c r="P18" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74">
+        <v>0</v>
+      </c>
+      <c r="R18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S18" s="74">
+        <v>0</v>
+      </c>
+      <c r="T18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="U18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="V18" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W18" s="74">
+        <v>0</v>
+      </c>
+      <c r="X18" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="25" customHeight="1">
+      <c r="A19" s="105" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="D19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="E19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="G19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="H19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="K19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="L19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="M19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="N19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="P19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="R19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="T19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="U19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="V19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="X19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Y19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AA19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AB19" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="25" customHeight="1">
+      <c r="A20" s="105" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" s="76">
+        <v>0</v>
+      </c>
+      <c r="C20" s="74">
+        <v>0</v>
+      </c>
+      <c r="D20" s="74">
+        <v>0</v>
+      </c>
+      <c r="E20" s="74">
+        <v>0</v>
+      </c>
+      <c r="F20" s="74">
+        <v>0</v>
+      </c>
+      <c r="G20" s="74">
+        <v>0</v>
+      </c>
+      <c r="H20" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I20" s="74">
+        <v>0</v>
+      </c>
+      <c r="J20" s="74">
+        <v>0</v>
+      </c>
+      <c r="K20" s="74">
+        <v>0</v>
+      </c>
+      <c r="L20" s="74">
+        <v>0</v>
+      </c>
+      <c r="M20" s="74">
+        <v>0</v>
+      </c>
+      <c r="N20" s="74">
+        <v>0</v>
+      </c>
+      <c r="O20" s="74">
+        <v>0</v>
+      </c>
+      <c r="P20" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q20" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="R20" s="74">
+        <v>0</v>
+      </c>
+      <c r="S20" s="74">
+        <v>0</v>
+      </c>
+      <c r="T20" s="74">
+        <v>0</v>
+      </c>
+      <c r="U20" s="74">
+        <v>0</v>
+      </c>
+      <c r="V20" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W20" s="74">
+        <v>0</v>
+      </c>
+      <c r="X20" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="25" customHeight="1">
+      <c r="A21" s="105" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="74">
-        <v>3</v>
-      </c>
-      <c r="C13" s="74">
-        <v>3</v>
-      </c>
-      <c r="D13" s="74">
-        <v>3</v>
-      </c>
-      <c r="E13" s="74">
-        <v>3</v>
-      </c>
-      <c r="F13" s="74">
-        <v>3</v>
-      </c>
-      <c r="G13" s="74">
-        <v>3</v>
-      </c>
-      <c r="H13" s="74">
-        <v>3</v>
-      </c>
-      <c r="I13" s="74">
-        <v>3</v>
-      </c>
-      <c r="J13" s="74">
-        <v>3</v>
-      </c>
-      <c r="K13" s="74">
-        <v>3</v>
-      </c>
-      <c r="L13" s="74">
-        <v>3</v>
-      </c>
-      <c r="M13" s="74">
-        <v>3</v>
-      </c>
-      <c r="N13" s="74">
-        <v>3</v>
-      </c>
-      <c r="O13" s="74">
-        <v>3</v>
-      </c>
-      <c r="P13" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="74">
-        <v>3</v>
-      </c>
-      <c r="R13" s="74">
-        <v>3</v>
-      </c>
-      <c r="S13" s="74">
-        <v>3</v>
-      </c>
-      <c r="T13" s="74">
-        <v>3</v>
-      </c>
-      <c r="U13" s="74">
-        <v>3</v>
-      </c>
-      <c r="V13" s="74">
-        <v>3</v>
-      </c>
-      <c r="W13" s="74">
-        <v>3</v>
-      </c>
-      <c r="X13" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="25" customHeight="1">
-      <c r="A14" s="108" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" s="74">
-        <v>0</v>
-      </c>
-      <c r="C14" s="74">
-        <v>0</v>
-      </c>
-      <c r="D14" s="74">
-        <v>0</v>
-      </c>
-      <c r="E14" s="74">
-        <v>3</v>
-      </c>
-      <c r="F14" s="74">
-        <v>3</v>
-      </c>
-      <c r="G14" s="74">
-        <v>3</v>
-      </c>
-      <c r="H14" s="74">
-        <v>3</v>
-      </c>
-      <c r="I14" s="74">
-        <v>0</v>
-      </c>
-      <c r="J14" s="74">
-        <v>3</v>
-      </c>
-      <c r="K14" s="74">
-        <v>0</v>
-      </c>
-      <c r="L14" s="74">
-        <v>3</v>
-      </c>
-      <c r="M14" s="74">
-        <v>0</v>
-      </c>
-      <c r="N14" s="74">
-        <v>0</v>
-      </c>
-      <c r="O14" s="74">
-        <v>0</v>
-      </c>
-      <c r="P14" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="74">
-        <v>3</v>
-      </c>
-      <c r="R14" s="74">
-        <v>3</v>
-      </c>
-      <c r="S14" s="74">
-        <v>0</v>
-      </c>
-      <c r="T14" s="74">
-        <v>0</v>
-      </c>
-      <c r="U14" s="74">
-        <v>3</v>
-      </c>
-      <c r="V14" s="74">
-        <v>3</v>
-      </c>
-      <c r="W14" s="74">
-        <v>0</v>
-      </c>
-      <c r="X14" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="25" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>408</v>
-      </c>
-      <c r="B15" s="74">
-        <v>0</v>
-      </c>
-      <c r="C15" s="74">
-        <v>0</v>
-      </c>
-      <c r="D15" s="74">
-        <v>0</v>
-      </c>
-      <c r="E15" s="74">
-        <v>0</v>
-      </c>
-      <c r="F15" s="74">
-        <v>0</v>
-      </c>
-      <c r="G15" s="74">
-        <v>0</v>
-      </c>
-      <c r="H15" s="74">
-        <v>0</v>
-      </c>
-      <c r="I15" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J15" s="74">
-        <v>0</v>
-      </c>
-      <c r="K15" s="74">
-        <v>0</v>
-      </c>
-      <c r="L15" s="74">
-        <v>0</v>
-      </c>
-      <c r="M15" s="74">
-        <v>0</v>
-      </c>
-      <c r="N15" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O15" s="74">
-        <v>0</v>
-      </c>
-      <c r="P15" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74">
-        <v>0</v>
-      </c>
-      <c r="R15" s="74">
-        <v>0</v>
-      </c>
-      <c r="S15" s="74">
-        <v>0</v>
-      </c>
-      <c r="T15" s="74">
-        <v>0</v>
-      </c>
-      <c r="U15" s="74">
-        <v>0</v>
-      </c>
-      <c r="V15" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W15" s="74">
-        <v>0</v>
-      </c>
-      <c r="X15" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="25" customHeight="1">
-      <c r="A16" s="108" t="s">
-        <v>407</v>
-      </c>
-      <c r="B16" s="74">
-        <v>0</v>
-      </c>
-      <c r="C16" s="74">
-        <v>0</v>
-      </c>
-      <c r="D16" s="74">
-        <v>0</v>
-      </c>
-      <c r="E16" s="74">
-        <v>0</v>
-      </c>
-      <c r="F16" s="74">
-        <v>0</v>
-      </c>
-      <c r="G16" s="74">
-        <v>0</v>
-      </c>
-      <c r="H16" s="74">
-        <v>0</v>
-      </c>
-      <c r="I16" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J16" s="74">
-        <v>0</v>
-      </c>
-      <c r="K16" s="74">
-        <v>0</v>
-      </c>
-      <c r="L16" s="74">
-        <v>0</v>
-      </c>
-      <c r="M16" s="74">
-        <v>0</v>
-      </c>
-      <c r="N16" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O16" s="74">
-        <v>0</v>
-      </c>
-      <c r="P16" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74">
-        <v>0</v>
-      </c>
-      <c r="R16" s="74">
-        <v>0</v>
-      </c>
-      <c r="S16" s="74">
-        <v>0</v>
-      </c>
-      <c r="T16" s="74">
-        <v>0</v>
-      </c>
-      <c r="U16" s="74">
-        <v>0</v>
-      </c>
-      <c r="V16" s="74">
-        <v>0</v>
-      </c>
-      <c r="W16" s="74">
-        <v>0</v>
-      </c>
-      <c r="X16" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z16" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="25" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>406</v>
-      </c>
-      <c r="B17" s="74">
-        <v>0</v>
-      </c>
-      <c r="C17" s="74">
-        <v>0</v>
-      </c>
-      <c r="D17" s="74">
-        <v>0</v>
-      </c>
-      <c r="E17" s="74">
-        <v>0</v>
-      </c>
-      <c r="F17" s="74">
-        <v>0</v>
-      </c>
-      <c r="G17" s="74">
-        <v>0</v>
-      </c>
-      <c r="H17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I17" s="74">
-        <v>0</v>
-      </c>
-      <c r="J17" s="74">
-        <v>0</v>
-      </c>
-      <c r="K17" s="74">
-        <v>0</v>
-      </c>
-      <c r="L17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="M17" s="74">
-        <v>0</v>
-      </c>
-      <c r="N17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O17" s="74">
-        <v>0</v>
-      </c>
-      <c r="P17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Q17" s="74">
-        <v>0</v>
-      </c>
-      <c r="R17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S17" s="74">
-        <v>0</v>
-      </c>
-      <c r="T17" s="74">
-        <v>0</v>
-      </c>
-      <c r="U17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="V17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W17" s="74">
-        <v>0</v>
-      </c>
-      <c r="X17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Y17" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z17" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="25" customHeight="1">
-      <c r="A18" s="108" t="s">
-        <v>395</v>
-      </c>
-      <c r="B18" s="74">
-        <v>0</v>
-      </c>
-      <c r="C18" s="74">
-        <v>0</v>
-      </c>
-      <c r="D18" s="74">
-        <v>0</v>
-      </c>
-      <c r="E18" s="74">
-        <v>0</v>
-      </c>
-      <c r="F18" s="74">
-        <v>0</v>
-      </c>
-      <c r="G18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="H18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I18" s="74">
-        <v>0</v>
-      </c>
-      <c r="J18" s="74">
-        <v>0</v>
-      </c>
-      <c r="K18" s="74">
-        <v>0</v>
-      </c>
-      <c r="L18" s="74">
-        <v>0</v>
-      </c>
-      <c r="M18" s="74">
-        <v>0</v>
-      </c>
-      <c r="N18" s="74">
-        <v>0</v>
-      </c>
-      <c r="O18" s="74">
-        <v>0</v>
-      </c>
-      <c r="P18" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74">
-        <v>0</v>
-      </c>
-      <c r="R18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S18" s="74">
-        <v>0</v>
-      </c>
-      <c r="T18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="U18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="V18" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W18" s="74">
-        <v>0</v>
-      </c>
-      <c r="X18" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="25" customHeight="1">
-      <c r="A19" s="108" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="D19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="E19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="F19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="G19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="H19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="K19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="L19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="M19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="N19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="P19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Q19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="R19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="T19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="U19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="V19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="X19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Y19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AA19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AB19" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="25" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="B21" s="74">
+        <v>3</v>
+      </c>
+      <c r="C21" s="74">
+        <v>3</v>
+      </c>
+      <c r="D21" s="74">
+        <v>3</v>
+      </c>
+      <c r="E21" s="74">
+        <v>3</v>
+      </c>
+      <c r="F21" s="74">
+        <v>3</v>
+      </c>
+      <c r="G21" s="74">
+        <v>3</v>
+      </c>
+      <c r="H21" s="74">
+        <v>3</v>
+      </c>
+      <c r="I21" s="74">
+        <v>3</v>
+      </c>
+      <c r="J21" s="74">
+        <v>3</v>
+      </c>
+      <c r="K21" s="74">
+        <v>3</v>
+      </c>
+      <c r="L21" s="74">
+        <v>3</v>
+      </c>
+      <c r="M21" s="74">
+        <v>3</v>
+      </c>
+      <c r="N21" s="74">
+        <v>3</v>
+      </c>
+      <c r="O21" s="74">
+        <v>3</v>
+      </c>
+      <c r="P21" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="74">
+        <v>3</v>
+      </c>
+      <c r="R21" s="74">
+        <v>3</v>
+      </c>
+      <c r="S21" s="74">
+        <v>3</v>
+      </c>
+      <c r="T21" s="74">
+        <v>3</v>
+      </c>
+      <c r="U21" s="74">
+        <v>3</v>
+      </c>
+      <c r="V21" s="74">
+        <v>3</v>
+      </c>
+      <c r="W21" s="74">
+        <v>3</v>
+      </c>
+      <c r="X21" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="25" customHeight="1">
+      <c r="A22" s="105" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="74">
+        <v>3</v>
+      </c>
+      <c r="C22" s="74">
+        <v>0</v>
+      </c>
+      <c r="D22" s="74">
+        <v>0</v>
+      </c>
+      <c r="E22" s="74">
+        <v>0</v>
+      </c>
+      <c r="F22" s="74">
+        <v>0</v>
+      </c>
+      <c r="G22" s="74">
+        <v>0</v>
+      </c>
+      <c r="H22" s="74">
+        <v>3</v>
+      </c>
+      <c r="I22" s="74">
+        <v>0</v>
+      </c>
+      <c r="J22" s="74">
+        <v>0</v>
+      </c>
+      <c r="K22" s="74">
+        <v>0</v>
+      </c>
+      <c r="L22" s="74">
+        <v>0</v>
+      </c>
+      <c r="M22" s="74">
+        <v>0</v>
+      </c>
+      <c r="N22" s="74">
+        <v>0</v>
+      </c>
+      <c r="O22" s="74">
+        <v>0</v>
+      </c>
+      <c r="P22" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74">
+        <v>0</v>
+      </c>
+      <c r="R22" s="74">
+        <v>3</v>
+      </c>
+      <c r="S22" s="74">
+        <v>0</v>
+      </c>
+      <c r="T22" s="74">
+        <v>0</v>
+      </c>
+      <c r="U22" s="74">
+        <v>0</v>
+      </c>
+      <c r="V22" s="74">
+        <v>0</v>
+      </c>
+      <c r="W22" s="74">
+        <v>0</v>
+      </c>
+      <c r="X22" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="25" customHeight="1">
+      <c r="A23" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="74">
+        <v>3</v>
+      </c>
+      <c r="C23" s="74">
+        <v>0</v>
+      </c>
+      <c r="D23" s="74">
+        <v>0</v>
+      </c>
+      <c r="E23" s="74">
+        <v>0</v>
+      </c>
+      <c r="F23" s="74">
+        <v>0</v>
+      </c>
+      <c r="G23" s="74">
+        <v>0</v>
+      </c>
+      <c r="H23" s="74">
+        <v>3</v>
+      </c>
+      <c r="I23" s="74">
+        <v>0</v>
+      </c>
+      <c r="J23" s="74">
+        <v>0</v>
+      </c>
+      <c r="K23" s="74">
+        <v>0</v>
+      </c>
+      <c r="L23" s="74">
+        <v>0</v>
+      </c>
+      <c r="M23" s="74">
+        <v>0</v>
+      </c>
+      <c r="N23" s="74">
+        <v>3</v>
+      </c>
+      <c r="O23" s="74">
+        <v>0</v>
+      </c>
+      <c r="P23" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="74">
+        <v>0</v>
+      </c>
+      <c r="R23" s="74">
+        <v>3</v>
+      </c>
+      <c r="S23" s="74">
+        <v>0</v>
+      </c>
+      <c r="T23" s="74">
+        <v>0</v>
+      </c>
+      <c r="U23" s="74">
+        <v>0</v>
+      </c>
+      <c r="V23" s="74">
+        <v>0</v>
+      </c>
+      <c r="W23" s="74">
+        <v>0</v>
+      </c>
+      <c r="X23" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="25" customHeight="1">
+      <c r="A24" s="105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="D24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="E24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="G24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="H24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="K24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="L24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="M24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="N24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="P24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="R24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="T24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="U24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="V24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="X24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Y24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AA24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AB24" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="25" customHeight="1">
+      <c r="A25" s="105" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="74">
+        <v>0</v>
+      </c>
+      <c r="C25" s="74">
+        <v>0</v>
+      </c>
+      <c r="D25" s="74">
+        <v>0</v>
+      </c>
+      <c r="E25" s="74">
+        <v>0</v>
+      </c>
+      <c r="F25" s="74">
+        <v>0</v>
+      </c>
+      <c r="G25" s="74">
+        <v>0</v>
+      </c>
+      <c r="H25" s="74">
+        <v>0</v>
+      </c>
+      <c r="I25" s="74">
+        <v>0</v>
+      </c>
+      <c r="J25" s="74">
+        <v>0</v>
+      </c>
+      <c r="K25" s="74">
+        <v>0</v>
+      </c>
+      <c r="L25" s="74">
+        <v>0</v>
+      </c>
+      <c r="M25" s="74">
+        <v>0</v>
+      </c>
+      <c r="N25" s="74">
+        <v>0</v>
+      </c>
+      <c r="O25" s="74">
+        <v>0</v>
+      </c>
+      <c r="P25" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="74">
+        <v>0</v>
+      </c>
+      <c r="R25" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S25" s="74">
+        <v>0</v>
+      </c>
+      <c r="T25" s="74">
+        <v>0</v>
+      </c>
+      <c r="U25" s="74">
+        <v>0</v>
+      </c>
+      <c r="V25" s="74">
+        <v>0</v>
+      </c>
+      <c r="W25" s="74">
+        <v>0</v>
+      </c>
+      <c r="X25" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="25" customHeight="1">
+      <c r="A26" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="74">
+        <v>3</v>
+      </c>
+      <c r="C26" s="74">
+        <v>3</v>
+      </c>
+      <c r="D26" s="74">
+        <v>3</v>
+      </c>
+      <c r="E26" s="74">
+        <v>3</v>
+      </c>
+      <c r="F26" s="74">
+        <v>3</v>
+      </c>
+      <c r="G26" s="74">
+        <v>3</v>
+      </c>
+      <c r="H26" s="74">
+        <v>3</v>
+      </c>
+      <c r="I26" s="74">
+        <v>3</v>
+      </c>
+      <c r="J26" s="74">
+        <v>3</v>
+      </c>
+      <c r="K26" s="74">
+        <v>3</v>
+      </c>
+      <c r="L26" s="74">
+        <v>3</v>
+      </c>
+      <c r="M26" s="74">
+        <v>3</v>
+      </c>
+      <c r="N26" s="74">
+        <v>3</v>
+      </c>
+      <c r="O26" s="74">
+        <v>3</v>
+      </c>
+      <c r="P26" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="74">
+        <v>3</v>
+      </c>
+      <c r="R26" s="74">
+        <v>3</v>
+      </c>
+      <c r="S26" s="74">
+        <v>3</v>
+      </c>
+      <c r="T26" s="74">
+        <v>3</v>
+      </c>
+      <c r="U26" s="74">
+        <v>3</v>
+      </c>
+      <c r="V26" s="74">
+        <v>3</v>
+      </c>
+      <c r="W26" s="74">
+        <v>3</v>
+      </c>
+      <c r="X26" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="25" customHeight="1">
+      <c r="A27" s="105" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="D27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="E27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="G27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="H27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="I27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="J27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="K27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="L27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="M27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="N27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="O27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="P27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Q27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="R27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="S27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="T27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="U27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="V27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="W27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="X27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Y27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="Z27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AA27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="AB27" s="74">
+        <v>2.6659999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="25" customHeight="1">
+      <c r="A28" s="105" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="74">
+        <v>3</v>
+      </c>
+      <c r="C28" s="74">
+        <v>3</v>
+      </c>
+      <c r="D28" s="74">
+        <v>3</v>
+      </c>
+      <c r="E28" s="74">
+        <v>0</v>
+      </c>
+      <c r="F28" s="74">
+        <v>3</v>
+      </c>
+      <c r="G28" s="74">
+        <v>0</v>
+      </c>
+      <c r="H28" s="74">
+        <v>0</v>
+      </c>
+      <c r="I28" s="74">
+        <v>3</v>
+      </c>
+      <c r="J28" s="74">
+        <v>3</v>
+      </c>
+      <c r="K28" s="74">
+        <v>0</v>
+      </c>
+      <c r="L28" s="74">
+        <v>0</v>
+      </c>
+      <c r="M28" s="74">
+        <v>3</v>
+      </c>
+      <c r="N28" s="74">
+        <v>3</v>
+      </c>
+      <c r="O28" s="74">
+        <v>3</v>
+      </c>
+      <c r="P28" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="74">
+        <v>3</v>
+      </c>
+      <c r="R28" s="74">
+        <v>0</v>
+      </c>
+      <c r="S28" s="74">
+        <v>3</v>
+      </c>
+      <c r="T28" s="74">
+        <v>3</v>
+      </c>
+      <c r="U28" s="74">
+        <v>0</v>
+      </c>
+      <c r="V28" s="74">
+        <v>3</v>
+      </c>
+      <c r="W28" s="74">
+        <v>0</v>
+      </c>
+      <c r="X28" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="17">
+      <c r="A29" s="105" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="74">
+        <v>3</v>
+      </c>
+      <c r="C29" s="74">
+        <v>3</v>
+      </c>
+      <c r="D29" s="74">
+        <v>3</v>
+      </c>
+      <c r="E29" s="74">
+        <v>0</v>
+      </c>
+      <c r="F29" s="74">
+        <v>3</v>
+      </c>
+      <c r="G29" s="74">
+        <v>0</v>
+      </c>
+      <c r="H29" s="74">
+        <v>0</v>
+      </c>
+      <c r="I29" s="74">
+        <v>3</v>
+      </c>
+      <c r="J29" s="74">
+        <v>3</v>
+      </c>
+      <c r="K29" s="74">
+        <v>0</v>
+      </c>
+      <c r="L29" s="74">
+        <v>0</v>
+      </c>
+      <c r="M29" s="74">
+        <v>3</v>
+      </c>
+      <c r="N29" s="74">
+        <v>3</v>
+      </c>
+      <c r="O29" s="74">
+        <v>3</v>
+      </c>
+      <c r="P29" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="74">
+        <v>3</v>
+      </c>
+      <c r="R29" s="74">
+        <v>0</v>
+      </c>
+      <c r="S29" s="74">
+        <v>3</v>
+      </c>
+      <c r="T29" s="74">
+        <v>3</v>
+      </c>
+      <c r="U29" s="74">
+        <v>0</v>
+      </c>
+      <c r="V29" s="74">
+        <v>3</v>
+      </c>
+      <c r="W29" s="74">
+        <v>0</v>
+      </c>
+      <c r="X29" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA29" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="25" customHeight="1">
+      <c r="A30" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" s="74">
+        <v>0</v>
+      </c>
+      <c r="C30" s="74">
+        <v>0</v>
+      </c>
+      <c r="D30" s="74">
+        <v>0</v>
+      </c>
+      <c r="E30" s="74">
+        <v>0</v>
+      </c>
+      <c r="F30" s="74">
+        <v>0</v>
+      </c>
+      <c r="G30" s="74">
+        <v>0</v>
+      </c>
+      <c r="H30" s="74">
+        <v>0</v>
+      </c>
+      <c r="I30" s="74">
+        <v>0</v>
+      </c>
+      <c r="J30" s="74">
+        <v>0</v>
+      </c>
+      <c r="K30" s="74">
+        <v>0</v>
+      </c>
+      <c r="L30" s="74">
+        <v>0</v>
+      </c>
+      <c r="M30" s="74">
+        <v>0</v>
+      </c>
+      <c r="N30" s="74">
+        <v>0</v>
+      </c>
+      <c r="O30" s="74">
+        <v>0</v>
+      </c>
+      <c r="P30" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="74">
+        <v>0</v>
+      </c>
+      <c r="R30" s="74">
+        <v>0</v>
+      </c>
+      <c r="S30" s="74">
+        <v>0</v>
+      </c>
+      <c r="T30" s="74">
+        <v>0</v>
+      </c>
+      <c r="U30" s="74">
+        <v>0</v>
+      </c>
+      <c r="V30" s="74">
+        <v>0</v>
+      </c>
+      <c r="W30" s="74">
+        <v>0</v>
+      </c>
+      <c r="X30" s="74">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="25" customHeight="1">
+      <c r="A31" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="B31" s="74">
+        <v>3</v>
+      </c>
+      <c r="C31" s="74">
+        <v>3</v>
+      </c>
+      <c r="D31" s="74">
+        <v>3</v>
+      </c>
+      <c r="E31" s="74">
+        <v>3</v>
+      </c>
+      <c r="F31" s="74">
+        <v>3</v>
+      </c>
+      <c r="G31" s="74">
+        <v>3</v>
+      </c>
+      <c r="H31" s="74">
+        <v>3</v>
+      </c>
+      <c r="I31" s="74">
+        <v>3</v>
+      </c>
+      <c r="J31" s="74">
+        <v>3</v>
+      </c>
+      <c r="K31" s="74">
+        <v>3</v>
+      </c>
+      <c r="L31" s="74">
+        <v>3</v>
+      </c>
+      <c r="M31" s="74">
+        <v>3</v>
+      </c>
+      <c r="N31" s="74">
+        <v>3</v>
+      </c>
+      <c r="O31" s="74">
+        <v>3</v>
+      </c>
+      <c r="P31" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="74">
+        <v>3</v>
+      </c>
+      <c r="R31" s="74">
+        <v>3</v>
+      </c>
+      <c r="S31" s="74">
+        <v>3</v>
+      </c>
+      <c r="T31" s="74">
+        <v>3</v>
+      </c>
+      <c r="U31" s="74">
+        <v>3</v>
+      </c>
+      <c r="V31" s="74">
+        <v>3</v>
+      </c>
+      <c r="W31" s="74">
+        <v>3</v>
+      </c>
+      <c r="X31" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="25" customHeight="1">
+      <c r="A32" s="105" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32" s="74">
+        <v>0</v>
+      </c>
+      <c r="C32" s="74">
+        <v>0</v>
+      </c>
+      <c r="D32" s="74">
+        <v>0</v>
+      </c>
+      <c r="E32" s="74">
+        <v>0</v>
+      </c>
+      <c r="F32" s="74">
+        <v>3</v>
+      </c>
+      <c r="G32" s="74">
+        <v>3</v>
+      </c>
+      <c r="H32" s="74">
+        <v>3</v>
+      </c>
+      <c r="I32" s="74">
+        <v>3</v>
+      </c>
+      <c r="J32" s="74">
+        <v>3</v>
+      </c>
+      <c r="K32" s="74">
+        <v>3</v>
+      </c>
+      <c r="L32" s="74">
+        <v>3</v>
+      </c>
+      <c r="M32" s="74">
+        <v>3</v>
+      </c>
+      <c r="N32" s="74">
+        <v>3</v>
+      </c>
+      <c r="O32" s="74">
+        <v>3</v>
+      </c>
+      <c r="P32" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="74">
+        <v>3</v>
+      </c>
+      <c r="R32" s="74">
+        <v>3</v>
+      </c>
+      <c r="S32" s="74">
+        <v>3</v>
+      </c>
+      <c r="T32" s="74">
+        <v>3</v>
+      </c>
+      <c r="U32" s="74">
+        <v>3</v>
+      </c>
+      <c r="V32" s="74">
+        <v>3</v>
+      </c>
+      <c r="W32" s="74">
+        <v>0</v>
+      </c>
+      <c r="X32" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="25" customHeight="1">
+      <c r="A33" s="105" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="74">
+        <v>0</v>
+      </c>
+      <c r="C33" s="74">
+        <v>0</v>
+      </c>
+      <c r="D33" s="74">
+        <v>0</v>
+      </c>
+      <c r="E33" s="74">
+        <v>0</v>
+      </c>
+      <c r="F33" s="74">
+        <v>3</v>
+      </c>
+      <c r="G33" s="74">
+        <v>3</v>
+      </c>
+      <c r="H33" s="74">
+        <v>3</v>
+      </c>
+      <c r="I33" s="74">
+        <v>3</v>
+      </c>
+      <c r="J33" s="74">
+        <v>3</v>
+      </c>
+      <c r="K33" s="74">
+        <v>3</v>
+      </c>
+      <c r="L33" s="74">
+        <v>3</v>
+      </c>
+      <c r="M33" s="74">
+        <v>3</v>
+      </c>
+      <c r="N33" s="74">
+        <v>3</v>
+      </c>
+      <c r="O33" s="74">
+        <v>3</v>
+      </c>
+      <c r="P33" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="74">
+        <v>3</v>
+      </c>
+      <c r="R33" s="74">
+        <v>3</v>
+      </c>
+      <c r="S33" s="74">
+        <v>3</v>
+      </c>
+      <c r="T33" s="74">
+        <v>3</v>
+      </c>
+      <c r="U33" s="74">
+        <v>3</v>
+      </c>
+      <c r="V33" s="74">
+        <v>3</v>
+      </c>
+      <c r="W33" s="74">
+        <v>0</v>
+      </c>
+      <c r="X33" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="25" customHeight="1">
+      <c r="A34" s="105" t="s">
         <v>396</v>
       </c>
-      <c r="B20" s="76">
-        <v>0</v>
-      </c>
-      <c r="C20" s="74">
-        <v>0</v>
-      </c>
-      <c r="D20" s="74">
-        <v>0</v>
-      </c>
-      <c r="E20" s="74">
-        <v>0</v>
-      </c>
-      <c r="F20" s="74">
-        <v>0</v>
-      </c>
-      <c r="G20" s="74">
-        <v>0</v>
-      </c>
-      <c r="H20" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I20" s="74">
-        <v>0</v>
-      </c>
-      <c r="J20" s="74">
-        <v>0</v>
-      </c>
-      <c r="K20" s="74">
-        <v>0</v>
-      </c>
-      <c r="L20" s="74">
-        <v>0</v>
-      </c>
-      <c r="M20" s="74">
-        <v>0</v>
-      </c>
-      <c r="N20" s="74">
-        <v>0</v>
-      </c>
-      <c r="O20" s="74">
-        <v>0</v>
-      </c>
-      <c r="P20" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Q20" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="R20" s="74">
-        <v>0</v>
-      </c>
-      <c r="S20" s="74">
-        <v>0</v>
-      </c>
-      <c r="T20" s="74">
-        <v>0</v>
-      </c>
-      <c r="U20" s="74">
-        <v>0</v>
-      </c>
-      <c r="V20" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W20" s="74">
-        <v>0</v>
-      </c>
-      <c r="X20" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="25" customHeight="1">
-      <c r="A21" s="108" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" s="74">
-        <v>3</v>
-      </c>
-      <c r="C21" s="74">
-        <v>3</v>
-      </c>
-      <c r="D21" s="74">
-        <v>3</v>
-      </c>
-      <c r="E21" s="74">
-        <v>3</v>
-      </c>
-      <c r="F21" s="74">
-        <v>3</v>
-      </c>
-      <c r="G21" s="74">
-        <v>3</v>
-      </c>
-      <c r="H21" s="74">
-        <v>3</v>
-      </c>
-      <c r="I21" s="74">
-        <v>3</v>
-      </c>
-      <c r="J21" s="74">
-        <v>3</v>
-      </c>
-      <c r="K21" s="74">
-        <v>3</v>
-      </c>
-      <c r="L21" s="74">
-        <v>3</v>
-      </c>
-      <c r="M21" s="74">
-        <v>3</v>
-      </c>
-      <c r="N21" s="74">
-        <v>3</v>
-      </c>
-      <c r="O21" s="74">
-        <v>3</v>
-      </c>
-      <c r="P21" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="74">
-        <v>3</v>
-      </c>
-      <c r="R21" s="74">
-        <v>3</v>
-      </c>
-      <c r="S21" s="74">
-        <v>3</v>
-      </c>
-      <c r="T21" s="74">
-        <v>3</v>
-      </c>
-      <c r="U21" s="74">
-        <v>3</v>
-      </c>
-      <c r="V21" s="74">
-        <v>3</v>
-      </c>
-      <c r="W21" s="74">
-        <v>3</v>
-      </c>
-      <c r="X21" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA21" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB21" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="25" customHeight="1">
-      <c r="A22" s="108" t="s">
-        <v>384</v>
-      </c>
-      <c r="B22" s="74">
-        <v>3</v>
-      </c>
-      <c r="C22" s="74">
-        <v>0</v>
-      </c>
-      <c r="D22" s="74">
-        <v>0</v>
-      </c>
-      <c r="E22" s="74">
-        <v>0</v>
-      </c>
-      <c r="F22" s="74">
-        <v>0</v>
-      </c>
-      <c r="G22" s="74">
-        <v>0</v>
-      </c>
-      <c r="H22" s="74">
-        <v>3</v>
-      </c>
-      <c r="I22" s="74">
-        <v>0</v>
-      </c>
-      <c r="J22" s="74">
-        <v>0</v>
-      </c>
-      <c r="K22" s="74">
-        <v>0</v>
-      </c>
-      <c r="L22" s="74">
-        <v>0</v>
-      </c>
-      <c r="M22" s="74">
-        <v>0</v>
-      </c>
-      <c r="N22" s="74">
-        <v>0</v>
-      </c>
-      <c r="O22" s="74">
-        <v>0</v>
-      </c>
-      <c r="P22" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74">
-        <v>0</v>
-      </c>
-      <c r="R22" s="74">
-        <v>3</v>
-      </c>
-      <c r="S22" s="74">
-        <v>0</v>
-      </c>
-      <c r="T22" s="74">
-        <v>0</v>
-      </c>
-      <c r="U22" s="74">
-        <v>0</v>
-      </c>
-      <c r="V22" s="74">
-        <v>0</v>
-      </c>
-      <c r="W22" s="74">
-        <v>0</v>
-      </c>
-      <c r="X22" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="25" customHeight="1">
-      <c r="A23" s="108" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" s="74">
-        <v>3</v>
-      </c>
-      <c r="C23" s="74">
-        <v>0</v>
-      </c>
-      <c r="D23" s="74">
-        <v>0</v>
-      </c>
-      <c r="E23" s="74">
-        <v>0</v>
-      </c>
-      <c r="F23" s="74">
-        <v>0</v>
-      </c>
-      <c r="G23" s="74">
-        <v>0</v>
-      </c>
-      <c r="H23" s="74">
-        <v>3</v>
-      </c>
-      <c r="I23" s="74">
-        <v>0</v>
-      </c>
-      <c r="J23" s="74">
-        <v>0</v>
-      </c>
-      <c r="K23" s="74">
-        <v>0</v>
-      </c>
-      <c r="L23" s="74">
-        <v>0</v>
-      </c>
-      <c r="M23" s="74">
-        <v>0</v>
-      </c>
-      <c r="N23" s="74">
-        <v>3</v>
-      </c>
-      <c r="O23" s="74">
-        <v>0</v>
-      </c>
-      <c r="P23" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="74">
-        <v>0</v>
-      </c>
-      <c r="R23" s="74">
-        <v>3</v>
-      </c>
-      <c r="S23" s="74">
-        <v>0</v>
-      </c>
-      <c r="T23" s="74">
-        <v>0</v>
-      </c>
-      <c r="U23" s="74">
-        <v>0</v>
-      </c>
-      <c r="V23" s="74">
-        <v>0</v>
-      </c>
-      <c r="W23" s="74">
-        <v>0</v>
-      </c>
-      <c r="X23" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="25" customHeight="1">
-      <c r="A24" s="108" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="D24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="E24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="F24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="G24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="H24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="K24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="L24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="M24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="N24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="P24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Q24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="R24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="T24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="U24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="V24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="X24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Y24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AA24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AB24" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="25" customHeight="1">
-      <c r="A25" s="108" t="s">
-        <v>398</v>
-      </c>
-      <c r="B25" s="74">
-        <v>0</v>
-      </c>
-      <c r="C25" s="74">
-        <v>0</v>
-      </c>
-      <c r="D25" s="74">
-        <v>0</v>
-      </c>
-      <c r="E25" s="74">
-        <v>0</v>
-      </c>
-      <c r="F25" s="74">
-        <v>0</v>
-      </c>
-      <c r="G25" s="74">
-        <v>0</v>
-      </c>
-      <c r="H25" s="74">
-        <v>0</v>
-      </c>
-      <c r="I25" s="74">
-        <v>0</v>
-      </c>
-      <c r="J25" s="74">
-        <v>0</v>
-      </c>
-      <c r="K25" s="74">
-        <v>0</v>
-      </c>
-      <c r="L25" s="74">
-        <v>0</v>
-      </c>
-      <c r="M25" s="74">
-        <v>0</v>
-      </c>
-      <c r="N25" s="74">
-        <v>0</v>
-      </c>
-      <c r="O25" s="74">
-        <v>0</v>
-      </c>
-      <c r="P25" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="74">
-        <v>0</v>
-      </c>
-      <c r="R25" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S25" s="74">
-        <v>0</v>
-      </c>
-      <c r="T25" s="74">
-        <v>0</v>
-      </c>
-      <c r="U25" s="74">
-        <v>0</v>
-      </c>
-      <c r="V25" s="74">
-        <v>0</v>
-      </c>
-      <c r="W25" s="74">
-        <v>0</v>
-      </c>
-      <c r="X25" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="25" customHeight="1">
-      <c r="A26" s="108" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" s="74">
-        <v>3</v>
-      </c>
-      <c r="C26" s="74">
-        <v>3</v>
-      </c>
-      <c r="D26" s="74">
-        <v>3</v>
-      </c>
-      <c r="E26" s="74">
-        <v>3</v>
-      </c>
-      <c r="F26" s="74">
-        <v>3</v>
-      </c>
-      <c r="G26" s="74">
-        <v>3</v>
-      </c>
-      <c r="H26" s="74">
-        <v>3</v>
-      </c>
-      <c r="I26" s="74">
-        <v>3</v>
-      </c>
-      <c r="J26" s="74">
-        <v>3</v>
-      </c>
-      <c r="K26" s="74">
-        <v>3</v>
-      </c>
-      <c r="L26" s="74">
-        <v>3</v>
-      </c>
-      <c r="M26" s="74">
-        <v>3</v>
-      </c>
-      <c r="N26" s="74">
-        <v>3</v>
-      </c>
-      <c r="O26" s="74">
-        <v>3</v>
-      </c>
-      <c r="P26" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="74">
-        <v>3</v>
-      </c>
-      <c r="R26" s="74">
-        <v>3</v>
-      </c>
-      <c r="S26" s="74">
-        <v>3</v>
-      </c>
-      <c r="T26" s="74">
-        <v>3</v>
-      </c>
-      <c r="U26" s="74">
-        <v>3</v>
-      </c>
-      <c r="V26" s="74">
-        <v>3</v>
-      </c>
-      <c r="W26" s="74">
-        <v>3</v>
-      </c>
-      <c r="X26" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="25" customHeight="1">
-      <c r="A27" s="108" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="D27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="E27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="F27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="G27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="H27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="I27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="K27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="L27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="M27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="N27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="O27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="P27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Q27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="R27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="S27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="T27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="U27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="V27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="W27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="X27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Y27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="Z27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AA27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="AB27" s="74">
-        <v>2.6659999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="25" customHeight="1">
-      <c r="A28" s="108" t="s">
-        <v>377</v>
-      </c>
-      <c r="B28" s="74">
-        <v>3</v>
-      </c>
-      <c r="C28" s="74">
-        <v>3</v>
-      </c>
-      <c r="D28" s="74">
-        <v>3</v>
-      </c>
-      <c r="E28" s="74">
-        <v>3</v>
-      </c>
-      <c r="F28" s="74">
-        <v>3</v>
-      </c>
-      <c r="G28" s="74">
-        <v>3</v>
-      </c>
-      <c r="H28" s="74">
-        <v>0</v>
-      </c>
-      <c r="I28" s="74">
-        <v>3</v>
-      </c>
-      <c r="J28" s="74">
-        <v>3</v>
-      </c>
-      <c r="K28" s="74">
-        <v>3</v>
-      </c>
-      <c r="L28" s="74">
-        <v>3</v>
-      </c>
-      <c r="M28" s="74">
-        <v>3</v>
-      </c>
-      <c r="N28" s="74">
-        <v>3</v>
-      </c>
-      <c r="O28" s="74">
-        <v>3</v>
-      </c>
-      <c r="P28" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q28" s="74">
-        <v>3</v>
-      </c>
-      <c r="R28" s="74">
-        <v>3</v>
-      </c>
-      <c r="S28" s="74">
-        <v>3</v>
-      </c>
-      <c r="T28" s="74">
-        <v>3</v>
-      </c>
-      <c r="U28" s="74">
-        <v>3</v>
-      </c>
-      <c r="V28" s="74">
-        <v>3</v>
-      </c>
-      <c r="W28" s="74">
-        <v>3</v>
-      </c>
-      <c r="X28" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y28" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z28" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA28" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="17">
-      <c r="A29" s="108" t="s">
-        <v>378</v>
-      </c>
-      <c r="B29" s="74">
-        <v>3</v>
-      </c>
-      <c r="C29" s="74">
-        <v>3</v>
-      </c>
-      <c r="D29" s="74">
-        <v>3</v>
-      </c>
-      <c r="E29" s="74">
-        <v>3</v>
-      </c>
-      <c r="F29" s="74">
-        <v>3</v>
-      </c>
-      <c r="G29" s="74">
-        <v>3</v>
-      </c>
-      <c r="H29" s="74">
-        <v>0</v>
-      </c>
-      <c r="I29" s="74">
-        <v>3</v>
-      </c>
-      <c r="J29" s="74">
-        <v>3</v>
-      </c>
-      <c r="K29" s="74">
-        <v>3</v>
-      </c>
-      <c r="L29" s="74">
-        <v>3</v>
-      </c>
-      <c r="M29" s="74">
-        <v>3</v>
-      </c>
-      <c r="N29" s="74">
-        <v>3</v>
-      </c>
-      <c r="O29" s="74">
-        <v>3</v>
-      </c>
-      <c r="P29" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="74">
-        <v>3</v>
-      </c>
-      <c r="R29" s="74">
-        <v>3</v>
-      </c>
-      <c r="S29" s="74">
-        <v>3</v>
-      </c>
-      <c r="T29" s="74">
-        <v>3</v>
-      </c>
-      <c r="U29" s="74">
-        <v>3</v>
-      </c>
-      <c r="V29" s="74">
-        <v>3</v>
-      </c>
-      <c r="W29" s="74">
-        <v>3</v>
-      </c>
-      <c r="X29" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA29" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="25" customHeight="1">
-      <c r="A30" s="108" t="s">
-        <v>405</v>
-      </c>
-      <c r="B30" s="74">
-        <v>0</v>
-      </c>
-      <c r="C30" s="74">
-        <v>0</v>
-      </c>
-      <c r="D30" s="74">
-        <v>0</v>
-      </c>
-      <c r="E30" s="74">
-        <v>0</v>
-      </c>
-      <c r="F30" s="74">
-        <v>0</v>
-      </c>
-      <c r="G30" s="74">
-        <v>0</v>
-      </c>
-      <c r="H30" s="74">
-        <v>0</v>
-      </c>
-      <c r="I30" s="74">
-        <v>0</v>
-      </c>
-      <c r="J30" s="74">
-        <v>0</v>
-      </c>
-      <c r="K30" s="74">
-        <v>0</v>
-      </c>
-      <c r="L30" s="74">
-        <v>0</v>
-      </c>
-      <c r="M30" s="74">
-        <v>0</v>
-      </c>
-      <c r="N30" s="74">
-        <v>0</v>
-      </c>
-      <c r="O30" s="74">
-        <v>0</v>
-      </c>
-      <c r="P30" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="74">
-        <v>0</v>
-      </c>
-      <c r="R30" s="74">
-        <v>0</v>
-      </c>
-      <c r="S30" s="74">
-        <v>0</v>
-      </c>
-      <c r="T30" s="74">
-        <v>0</v>
-      </c>
-      <c r="U30" s="74">
-        <v>0</v>
-      </c>
-      <c r="V30" s="74">
-        <v>0</v>
-      </c>
-      <c r="W30" s="74">
-        <v>0</v>
-      </c>
-      <c r="X30" s="74">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="25" customHeight="1">
-      <c r="A31" s="108" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="74">
-        <v>3</v>
-      </c>
-      <c r="C31" s="74">
-        <v>3</v>
-      </c>
-      <c r="D31" s="74">
-        <v>3</v>
-      </c>
-      <c r="E31" s="74">
-        <v>3</v>
-      </c>
-      <c r="F31" s="74">
-        <v>3</v>
-      </c>
-      <c r="G31" s="74">
-        <v>3</v>
-      </c>
-      <c r="H31" s="74">
-        <v>3</v>
-      </c>
-      <c r="I31" s="74">
-        <v>3</v>
-      </c>
-      <c r="J31" s="74">
-        <v>3</v>
-      </c>
-      <c r="K31" s="74">
-        <v>3</v>
-      </c>
-      <c r="L31" s="74">
-        <v>3</v>
-      </c>
-      <c r="M31" s="74">
-        <v>3</v>
-      </c>
-      <c r="N31" s="74">
-        <v>3</v>
-      </c>
-      <c r="O31" s="74">
-        <v>3</v>
-      </c>
-      <c r="P31" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="74">
-        <v>3</v>
-      </c>
-      <c r="R31" s="74">
-        <v>3</v>
-      </c>
-      <c r="S31" s="74">
-        <v>3</v>
-      </c>
-      <c r="T31" s="74">
-        <v>3</v>
-      </c>
-      <c r="U31" s="74">
-        <v>3</v>
-      </c>
-      <c r="V31" s="74">
-        <v>3</v>
-      </c>
-      <c r="W31" s="74">
-        <v>3</v>
-      </c>
-      <c r="X31" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y31" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="25" customHeight="1">
-      <c r="A32" s="108" t="s">
-        <v>401</v>
-      </c>
-      <c r="B32" s="74">
-        <v>0</v>
-      </c>
-      <c r="C32" s="74">
-        <v>0</v>
-      </c>
-      <c r="D32" s="74">
-        <v>0</v>
-      </c>
-      <c r="E32" s="74">
-        <v>0</v>
-      </c>
-      <c r="F32" s="74">
-        <v>3</v>
-      </c>
-      <c r="G32" s="74">
-        <v>3</v>
-      </c>
-      <c r="H32" s="74">
-        <v>3</v>
-      </c>
-      <c r="I32" s="74">
-        <v>3</v>
-      </c>
-      <c r="J32" s="74">
-        <v>3</v>
-      </c>
-      <c r="K32" s="74">
-        <v>3</v>
-      </c>
-      <c r="L32" s="74">
-        <v>3</v>
-      </c>
-      <c r="M32" s="74">
-        <v>3</v>
-      </c>
-      <c r="N32" s="74">
-        <v>3</v>
-      </c>
-      <c r="O32" s="74">
-        <v>3</v>
-      </c>
-      <c r="P32" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="74">
-        <v>3</v>
-      </c>
-      <c r="R32" s="74">
-        <v>3</v>
-      </c>
-      <c r="S32" s="74">
-        <v>3</v>
-      </c>
-      <c r="T32" s="74">
-        <v>3</v>
-      </c>
-      <c r="U32" s="74">
-        <v>3</v>
-      </c>
-      <c r="V32" s="74">
-        <v>3</v>
-      </c>
-      <c r="W32" s="74">
-        <v>0</v>
-      </c>
-      <c r="X32" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="25" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="B34" s="74">
+        <v>3</v>
+      </c>
+      <c r="C34" s="74">
+        <v>3</v>
+      </c>
+      <c r="D34" s="74">
+        <v>3</v>
+      </c>
+      <c r="E34" s="74">
+        <v>3</v>
+      </c>
+      <c r="F34" s="74">
+        <v>3</v>
+      </c>
+      <c r="G34" s="74">
+        <v>3</v>
+      </c>
+      <c r="H34" s="74">
+        <v>3</v>
+      </c>
+      <c r="I34" s="74">
+        <v>3</v>
+      </c>
+      <c r="J34" s="74">
+        <v>3</v>
+      </c>
+      <c r="K34" s="74">
+        <v>3</v>
+      </c>
+      <c r="L34" s="74">
+        <v>3</v>
+      </c>
+      <c r="M34" s="74">
+        <v>3</v>
+      </c>
+      <c r="N34" s="74">
+        <v>3</v>
+      </c>
+      <c r="O34" s="74">
+        <v>3</v>
+      </c>
+      <c r="P34" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="74">
+        <v>3</v>
+      </c>
+      <c r="R34" s="74">
+        <v>3</v>
+      </c>
+      <c r="S34" s="74">
+        <v>3</v>
+      </c>
+      <c r="T34" s="74">
+        <v>3</v>
+      </c>
+      <c r="U34" s="74">
+        <v>3</v>
+      </c>
+      <c r="V34" s="74">
+        <v>3</v>
+      </c>
+      <c r="W34" s="74">
+        <v>3</v>
+      </c>
+      <c r="X34" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="74">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="25" customHeight="1">
+      <c r="A35" s="105" t="s">
         <v>402</v>
       </c>
-      <c r="B33" s="74">
-        <v>0</v>
-      </c>
-      <c r="C33" s="74">
-        <v>0</v>
-      </c>
-      <c r="D33" s="74">
-        <v>0</v>
-      </c>
-      <c r="E33" s="74">
-        <v>0</v>
-      </c>
-      <c r="F33" s="74">
-        <v>3</v>
-      </c>
-      <c r="G33" s="74">
-        <v>3</v>
-      </c>
-      <c r="H33" s="74">
-        <v>3</v>
-      </c>
-      <c r="I33" s="74">
-        <v>3</v>
-      </c>
-      <c r="J33" s="74">
-        <v>3</v>
-      </c>
-      <c r="K33" s="74">
-        <v>3</v>
-      </c>
-      <c r="L33" s="74">
-        <v>3</v>
-      </c>
-      <c r="M33" s="74">
-        <v>3</v>
-      </c>
-      <c r="N33" s="74">
-        <v>3</v>
-      </c>
-      <c r="O33" s="74">
-        <v>3</v>
-      </c>
-      <c r="P33" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="74">
-        <v>3</v>
-      </c>
-      <c r="R33" s="74">
-        <v>3</v>
-      </c>
-      <c r="S33" s="74">
-        <v>3</v>
-      </c>
-      <c r="T33" s="74">
-        <v>3</v>
-      </c>
-      <c r="U33" s="74">
-        <v>3</v>
-      </c>
-      <c r="V33" s="74">
-        <v>3</v>
-      </c>
-      <c r="W33" s="74">
-        <v>0</v>
-      </c>
-      <c r="X33" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z33" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="25" customHeight="1">
-      <c r="A34" s="108" t="s">
-        <v>397</v>
-      </c>
-      <c r="B34" s="74">
-        <v>3</v>
-      </c>
-      <c r="C34" s="74">
-        <v>3</v>
-      </c>
-      <c r="D34" s="74">
-        <v>3</v>
-      </c>
-      <c r="E34" s="74">
-        <v>3</v>
-      </c>
-      <c r="F34" s="74">
-        <v>3</v>
-      </c>
-      <c r="G34" s="74">
-        <v>3</v>
-      </c>
-      <c r="H34" s="74">
-        <v>3</v>
-      </c>
-      <c r="I34" s="74">
-        <v>3</v>
-      </c>
-      <c r="J34" s="74">
-        <v>3</v>
-      </c>
-      <c r="K34" s="74">
-        <v>3</v>
-      </c>
-      <c r="L34" s="74">
-        <v>3</v>
-      </c>
-      <c r="M34" s="74">
-        <v>3</v>
-      </c>
-      <c r="N34" s="74">
-        <v>3</v>
-      </c>
-      <c r="O34" s="74">
-        <v>3</v>
-      </c>
-      <c r="P34" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="74">
-        <v>3</v>
-      </c>
-      <c r="R34" s="74">
-        <v>3</v>
-      </c>
-      <c r="S34" s="74">
-        <v>3</v>
-      </c>
-      <c r="T34" s="74">
-        <v>3</v>
-      </c>
-      <c r="U34" s="74">
-        <v>3</v>
-      </c>
-      <c r="V34" s="74">
-        <v>3</v>
-      </c>
-      <c r="W34" s="74">
-        <v>3</v>
-      </c>
-      <c r="X34" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="74">
-        <v>3</v>
-      </c>
-      <c r="AA34" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB34" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="25" customHeight="1">
-      <c r="A35" s="108" t="s">
+      <c r="B35" s="74">
+        <v>3</v>
+      </c>
+      <c r="C35" s="74">
+        <v>3</v>
+      </c>
+      <c r="D35" s="74">
+        <v>3</v>
+      </c>
+      <c r="E35" s="74">
+        <v>0</v>
+      </c>
+      <c r="F35" s="74">
+        <v>3</v>
+      </c>
+      <c r="G35" s="74">
+        <v>3</v>
+      </c>
+      <c r="H35" s="74">
+        <v>3</v>
+      </c>
+      <c r="I35" s="74">
+        <v>3</v>
+      </c>
+      <c r="J35" s="74">
+        <v>3</v>
+      </c>
+      <c r="K35" s="74">
+        <v>3</v>
+      </c>
+      <c r="L35" s="74">
+        <v>3</v>
+      </c>
+      <c r="M35" s="74">
+        <v>3</v>
+      </c>
+      <c r="N35" s="74">
+        <v>3</v>
+      </c>
+      <c r="O35" s="74">
+        <v>0</v>
+      </c>
+      <c r="P35" s="74">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="74">
+        <v>3</v>
+      </c>
+      <c r="R35" s="74">
+        <v>3</v>
+      </c>
+      <c r="S35" s="74">
+        <v>0</v>
+      </c>
+      <c r="T35" s="74">
+        <v>0</v>
+      </c>
+      <c r="U35" s="74">
+        <v>3</v>
+      </c>
+      <c r="V35" s="74">
+        <v>3</v>
+      </c>
+      <c r="W35" s="74">
+        <v>0</v>
+      </c>
+      <c r="X35" s="74">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="74">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="25" customHeight="1">
+      <c r="A36" s="105" t="s">
         <v>403</v>
-      </c>
-      <c r="B35" s="74">
-        <v>3</v>
-      </c>
-      <c r="C35" s="74">
-        <v>3</v>
-      </c>
-      <c r="D35" s="74">
-        <v>3</v>
-      </c>
-      <c r="E35" s="74">
-        <v>0</v>
-      </c>
-      <c r="F35" s="74">
-        <v>3</v>
-      </c>
-      <c r="G35" s="74">
-        <v>3</v>
-      </c>
-      <c r="H35" s="74">
-        <v>3</v>
-      </c>
-      <c r="I35" s="74">
-        <v>3</v>
-      </c>
-      <c r="J35" s="74">
-        <v>3</v>
-      </c>
-      <c r="K35" s="74">
-        <v>3</v>
-      </c>
-      <c r="L35" s="74">
-        <v>3</v>
-      </c>
-      <c r="M35" s="74">
-        <v>3</v>
-      </c>
-      <c r="N35" s="74">
-        <v>3</v>
-      </c>
-      <c r="O35" s="74">
-        <v>0</v>
-      </c>
-      <c r="P35" s="74">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="74">
-        <v>3</v>
-      </c>
-      <c r="R35" s="74">
-        <v>3</v>
-      </c>
-      <c r="S35" s="74">
-        <v>0</v>
-      </c>
-      <c r="T35" s="74">
-        <v>0</v>
-      </c>
-      <c r="U35" s="74">
-        <v>3</v>
-      </c>
-      <c r="V35" s="74">
-        <v>3</v>
-      </c>
-      <c r="W35" s="74">
-        <v>0</v>
-      </c>
-      <c r="X35" s="74">
-        <v>3</v>
-      </c>
-      <c r="Y35" s="74">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="74">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="25" customHeight="1">
-      <c r="A36" s="108" t="s">
-        <v>404</v>
       </c>
       <c r="B36" s="74">
         <v>0</v>
@@ -12736,114 +12644,114 @@
     <col min="2" max="36" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="113" customFormat="1" ht="34">
+    <row r="1" spans="1:36" s="110" customFormat="1" ht="34">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="D1" s="107" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="E1" s="107" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>350</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>352</v>
+      </c>
+      <c r="L1" s="107" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" s="107" t="s">
+        <v>343</v>
+      </c>
+      <c r="N1" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1" s="107" t="s">
+        <v>355</v>
+      </c>
+      <c r="P1" s="107" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="107" t="s">
+        <v>357</v>
+      </c>
+      <c r="R1" s="107" t="s">
+        <v>358</v>
+      </c>
+      <c r="S1" s="107" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="110" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" s="110" t="s">
+      <c r="T1" s="107" t="s">
+        <v>359</v>
+      </c>
+      <c r="U1" s="107" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" s="106" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="110" t="s">
-        <v>343</v>
-      </c>
-      <c r="H1" s="110" t="s">
-        <v>350</v>
-      </c>
-      <c r="I1" s="110" t="s">
-        <v>351</v>
-      </c>
-      <c r="J1" s="110" t="s">
-        <v>352</v>
-      </c>
-      <c r="K1" s="110" t="s">
-        <v>353</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>354</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>344</v>
-      </c>
-      <c r="N1" s="110" t="s">
-        <v>355</v>
-      </c>
-      <c r="O1" s="110" t="s">
-        <v>356</v>
-      </c>
-      <c r="P1" s="110" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q1" s="110" t="s">
-        <v>358</v>
-      </c>
-      <c r="R1" s="110" t="s">
-        <v>359</v>
-      </c>
-      <c r="S1" s="110" t="s">
-        <v>337</v>
-      </c>
-      <c r="T1" s="110" t="s">
+      <c r="W1" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y1" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z1" s="108" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA1" s="109" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB1" s="106" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC1" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD1" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE1" s="106" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF1" s="107" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG1" s="108" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH1" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="U1" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="V1" s="109" t="s">
-        <v>348</v>
-      </c>
-      <c r="W1" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="X1" s="111" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y1" s="109" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z1" s="111" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA1" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB1" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="AC1" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD1" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE1" s="109" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF1" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG1" s="111" t="s">
+      <c r="AI1" s="107" t="s">
         <v>366</v>
       </c>
-      <c r="AH1" s="109" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI1" s="110" t="s">
+      <c r="AJ1" s="108" t="s">
         <v>367</v>
-      </c>
-      <c r="AJ1" s="111" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -15806,13 +15714,13 @@
       <c r="AG28" s="63">
         <v>3</v>
       </c>
-      <c r="AH28" s="107">
-        <v>3</v>
-      </c>
-      <c r="AI28" s="91">
-        <v>3</v>
-      </c>
-      <c r="AJ28" s="92">
+      <c r="AH28" s="104">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="88">
+        <v>3</v>
+      </c>
+      <c r="AJ28" s="89">
         <v>0</v>
       </c>
     </row>
@@ -18366,7 +18274,7 @@
     </row>
     <row r="4" spans="1:28" ht="25" customHeight="1">
       <c r="A4" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="74">
         <v>3</v>
@@ -18796,7 +18704,7 @@
     </row>
     <row r="9" spans="1:28" ht="25" customHeight="1">
       <c r="A9" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="74">
         <v>0</v>
@@ -19140,7 +19048,7 @@
     </row>
     <row r="13" spans="1:28" ht="25" customHeight="1">
       <c r="A13" s="73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="74">
         <v>3</v>
@@ -19914,7 +19822,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" s="74">
         <f>SUM(B2:B21)</f>
@@ -20027,7 +19935,7 @@
     </row>
     <row r="25" spans="1:28" ht="25" customHeight="1">
       <c r="A25" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="72" t="s">
         <v>59</v>
@@ -20113,7 +20021,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B26" s="77">
         <v>26.332000000000001</v>
@@ -20202,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -20223,7 +20131,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" s="74">
         <v>3</v>
@@ -20263,7 +20171,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="74">
         <v>2.6659999999999999</v>
@@ -20299,7 +20207,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" s="74">
         <v>3</v>
@@ -20375,7 +20283,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B54" s="74">
         <f>SUM(B34:B53)</f>
@@ -20579,7 +20487,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="73" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="74">
         <v>3</v>
@@ -20881,7 +20789,7 @@
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="102" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="74">
@@ -20967,8 +20875,8 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="106" t="s">
-        <v>319</v>
+      <c r="A3" s="103" t="s">
+        <v>318</v>
       </c>
       <c r="B3" s="74">
         <v>3</v>
